--- a/thruster_data.xlsx
+++ b/thruster_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szeke\Documents\DARE\arc_optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734D9074-F729-4A8C-9328-27613AD846BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7671F8-7231-41E3-AE55-4A6E34C64F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{14AF24CB-EEC9-4C32-8C0C-4528929FB34A}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/thruster_data.xlsx
+++ b/thruster_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szeke\Documents\DARE\arc_optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7671F8-7231-41E3-AE55-4A6E34C64F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA80FFF-AD0E-477D-95F4-E945A846BA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{14AF24CB-EEC9-4C32-8C0C-4528929FB34A}"/>
+    <workbookView xWindow="6400" yWindow="10" windowWidth="19200" windowHeight="9970" xr2:uid="{14AF24CB-EEC9-4C32-8C0C-4528929FB34A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Thruster</t>
   </si>
   <si>
-    <t>Arc</t>
-  </si>
-  <si>
     <t>MDT-2A</t>
   </si>
   <si>
@@ -80,41 +77,74 @@
     <t>TU/e PPT</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>ASP3L</t>
   </si>
   <si>
     <t>NASA GRC 60J</t>
+  </si>
+  <si>
+    <t>12U APPT</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>WPI</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>LPPT-5</t>
+  </si>
+  <si>
+    <t>LPPT-25</t>
+  </si>
+  <si>
+    <t>h [cm]</t>
+  </si>
+  <si>
+    <t>w [cm]</t>
+  </si>
+  <si>
+    <t>c [cm]</t>
+  </si>
+  <si>
+    <t>R [mO]</t>
+  </si>
+  <si>
+    <t>L [nH]</t>
+  </si>
+  <si>
+    <t>E [J]</t>
+  </si>
+  <si>
+    <t>C [uF]</t>
+  </si>
+  <si>
+    <t>V [V]</t>
+  </si>
+  <si>
+    <t>Ibit [uNs]</t>
+  </si>
+  <si>
+    <t>Isp [s]</t>
+  </si>
+  <si>
+    <t>Nshots [-]</t>
+  </si>
+  <si>
+    <t>Itot [uNs]</t>
+  </si>
+  <si>
+    <t>m [kg]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +156,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,8 +190,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,49 +506,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A17687-B7DF-478F-9882-DFD1A02C185F}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -531,14 +584,11 @@
       <c r="H2">
         <v>31.1</v>
       </c>
-      <c r="I2" s="1">
-        <f>SQRT(2*G2/(H2*10^(-6)))</f>
-        <v>717.26526012083275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2.5</v>
@@ -558,14 +608,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <f>SQRT(2*G3/(H3*10^(-6)))</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3.81</v>
@@ -585,14 +632,11 @@
       <c r="H4">
         <v>33</v>
       </c>
-      <c r="I4" s="1">
-        <f>SQRT(2*G4/(H4*10^(-6)))</f>
-        <v>778.49894416152301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2.5</v>
@@ -612,14 +656,11 @@
       <c r="H5">
         <v>17</v>
       </c>
-      <c r="I5" s="1">
-        <f>SQRT(2*G5/(H5*10^(-6)))</f>
-        <v>1533.929977694741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2.79</v>
@@ -639,14 +680,11 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
-        <f>SQRT(2*G6/(H6*10^(-6)))</f>
-        <v>1360.1470508735445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3.81</v>
@@ -666,14 +704,11 @@
       <c r="H7">
         <v>33</v>
       </c>
-      <c r="I7" s="1">
-        <f>SQRT(2*G7/(H7*10^(-6)))</f>
-        <v>1348.3997249264842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3.81</v>
@@ -693,14 +728,11 @@
       <c r="H8">
         <v>40</v>
       </c>
-      <c r="I8" s="1">
-        <f>SQRT(2*G8/(H8*10^(-6)))</f>
-        <v>1673.3200530681513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2.54</v>
@@ -720,14 +752,11 @@
       <c r="H9">
         <v>50</v>
       </c>
-      <c r="I9" s="1">
-        <f>SQRT(2*G9/(H9*10^(-6)))</f>
-        <v>1788.854381999832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -747,14 +776,11 @@
       <c r="H10">
         <v>20</v>
       </c>
-      <c r="I10" s="1">
-        <f>SQRT(2*G10/(H10*10^(-6)))</f>
-        <v>1414.2135623730951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -768,14 +794,11 @@
       <c r="H11">
         <v>5</v>
       </c>
-      <c r="I11" s="1">
-        <f>SQRT(2*G11/(H11*10^(-6)))</f>
-        <v>1446.3747785411638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -789,14 +812,11 @@
       <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" s="1">
-        <f>SQRT(2*G12/(H12*10^(-6)))</f>
-        <v>1501.1106998930268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -810,14 +830,11 @@
       <c r="H13">
         <v>3.2</v>
       </c>
-      <c r="I13" s="1">
-        <f>SQRT(2*G13/(H13*10^(-6)))</f>
-        <v>1118.0339887498949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -831,14 +848,11 @@
       <c r="H14">
         <v>4</v>
       </c>
-      <c r="I14" s="1">
-        <f>SQRT(2*G14/(H14*10^(-6)))</f>
-        <v>1581.1388300841897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>3.1</v>
@@ -852,14 +866,11 @@
       <c r="H15">
         <v>40</v>
       </c>
-      <c r="I15" s="1">
-        <f>SQRT(2*G15/(H15*10^(-6)))</f>
-        <v>1732.0508075688774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>3.81</v>
@@ -879,9 +890,31 @@
       <c r="H16">
         <v>33</v>
       </c>
-      <c r="I16" s="1">
-        <f>SQRT(2*G16/(H16*10^(-6)))</f>
-        <v>1906.9251784911846</v>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -891,6 +924,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fd4f3b77-6e0f-4b9d-b8f3-fad4640b6fea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002ABDB986DF09AC4EA62D5E8BA673CF2C" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c943813f55bc81bd00b055068f3dc183">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd4f3b77-6e0f-4b9d-b8f3-fad4640b6fea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad2b7262bb4f57fdfd8ea6853dcc019e" ns3:_="">
     <xsd:import namespace="fd4f3b77-6e0f-4b9d-b8f3-fad4640b6fea"/>
@@ -1034,14 +1075,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fd4f3b77-6e0f-4b9d-b8f3-fad4640b6fea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1052,6 +1085,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8469B764-6783-4E45-A989-0E8006D3680F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fd4f3b77-6e0f-4b9d-b8f3-fad4640b6fea"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767D56A3-8F62-4F87-9D7A-5975930C6D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1069,22 +1118,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8469B764-6783-4E45-A989-0E8006D3680F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fd4f3b77-6e0f-4b9d-b8f3-fad4640b6fea"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96A7ECD9-0EC2-4FCC-AC29-18689F41BD9C}">
   <ds:schemaRefs>
